--- a/data/trans_orig/Q5402-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7328</v>
+        <v>6694</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19320</v>
+        <v>19977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09443788647426769</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05680719821082881</v>
+        <v>0.05189808470850861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1497789770640148</v>
+        <v>0.1548731011603493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -765,19 +765,19 @@
         <v>23618</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15445</v>
+        <v>15005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34241</v>
+        <v>34663</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08676277541044829</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0567380039031663</v>
+        <v>0.05512175185435488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1257888735918659</v>
+        <v>0.1273389721872241</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -786,19 +786,19 @@
         <v>35800</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24788</v>
+        <v>25098</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47500</v>
+        <v>48575</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0892303992521922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06178497072359041</v>
+        <v>0.06255586623930647</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1183947906538774</v>
+        <v>0.1210730601163375</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>12813</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7475</v>
+        <v>7427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20315</v>
+        <v>19989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09933012675087327</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05794658499101159</v>
+        <v>0.05757904901248884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1574921258181433</v>
+        <v>0.1549649009419611</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -836,19 +836,19 @@
         <v>25436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17267</v>
+        <v>16348</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36629</v>
+        <v>35942</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09344112508278327</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06343180751562663</v>
+        <v>0.06005533883005089</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1345604653700172</v>
+        <v>0.1320380834062421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -857,19 +857,19 @@
         <v>38248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27960</v>
+        <v>27150</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49994</v>
+        <v>50846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09533449715250508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06968919569576103</v>
+        <v>0.06767087189279271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1246099174952839</v>
+        <v>0.1267346223807318</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>103997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94005</v>
+        <v>94442</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110994</v>
+        <v>111510</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8062319867748591</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7287688061527096</v>
+        <v>0.7321600455669156</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8604771806678729</v>
+        <v>0.8644752610879416</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>220</v>
@@ -907,19 +907,19 @@
         <v>223158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>209952</v>
+        <v>207677</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>234146</v>
+        <v>235621</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8197960995067685</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.771280912621366</v>
+        <v>0.7629248132614801</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8601612650005778</v>
+        <v>0.8655781848013184</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>332</v>
@@ -928,19 +928,19 @@
         <v>327155</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>311361</v>
+        <v>310625</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>340366</v>
+        <v>341500</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8154351035953027</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7760672672151382</v>
+        <v>0.7742346348610273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8483645735168751</v>
+        <v>0.8511905253173301</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>8423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3997</v>
+        <v>4471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15743</v>
+        <v>16020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05181513730863178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0245892837251004</v>
+        <v>0.02750416654046928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09684996050380895</v>
+        <v>0.09854969810568673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1053,19 +1053,19 @@
         <v>4286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1141</v>
+        <v>1106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10802</v>
+        <v>10400</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0210492441804301</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005602023825881383</v>
+        <v>0.005431741233415153</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05305440815241741</v>
+        <v>0.05108358028145679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1074,19 +1074,19 @@
         <v>12708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7361</v>
+        <v>6838</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21557</v>
+        <v>21877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03470792404909964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02010273372936008</v>
+        <v>0.01867398598438818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0588754262985633</v>
+        <v>0.05974701040795597</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>19692</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12655</v>
+        <v>12653</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27556</v>
+        <v>28299</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.121140517741015</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07784826039825027</v>
+        <v>0.07783981096387582</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1695193640124771</v>
+        <v>0.1740862735741986</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1124,19 +1124,19 @@
         <v>13314</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7213</v>
+        <v>6792</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22941</v>
+        <v>22368</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06539271256657957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03542777868563622</v>
+        <v>0.03336143315915219</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1126791257616645</v>
+        <v>0.1098639247916481</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -1145,19 +1145,19 @@
         <v>33006</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23538</v>
+        <v>24296</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44656</v>
+        <v>44306</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09014224351910681</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06428353423152755</v>
+        <v>0.06635535839084157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1219609832467517</v>
+        <v>0.1210030607401187</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>134440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125201</v>
+        <v>124872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143455</v>
+        <v>143344</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8270443449503533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7702075864877561</v>
+        <v>0.768182200968452</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.882502314528462</v>
+        <v>0.8818209527729017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -1195,19 +1195,19 @@
         <v>185998</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175086</v>
+        <v>176370</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>192530</v>
+        <v>192982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9135580432529903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8599618124718073</v>
+        <v>0.8662682656705988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9456447487355434</v>
+        <v>0.9478605034181112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>324</v>
@@ -1216,19 +1216,19 @@
         <v>320439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>307732</v>
+        <v>307857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331370</v>
+        <v>331287</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8751498324317936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8404463994045053</v>
+        <v>0.8407871718368858</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9050038852645894</v>
+        <v>0.9047783078361763</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>2694</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7518</v>
+        <v>7186</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01858848219102701</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005608881370163049</v>
+        <v>0.005567390746867137</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05187511345817556</v>
+        <v>0.04958646571035642</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1341,19 +1341,19 @@
         <v>6896</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2264</v>
+        <v>2447</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13645</v>
+        <v>14299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04721204310967236</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01549862869651181</v>
+        <v>0.01674984310035938</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09341853827826427</v>
+        <v>0.09789633276952331</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1362,19 +1362,19 @@
         <v>9590</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4392</v>
+        <v>4352</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17765</v>
+        <v>17501</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0329568636243134</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01509513236883443</v>
+        <v>0.01495512434975351</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06105311976113849</v>
+        <v>0.0601457801717821</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>9314</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4117</v>
+        <v>4388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17867</v>
+        <v>17607</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06427029686149202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02841188125141874</v>
+        <v>0.03027626875194718</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1232953645973402</v>
+        <v>0.121496487777622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1412,19 +1412,19 @@
         <v>5425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2220</v>
+        <v>1997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11301</v>
+        <v>11831</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03714294071416151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01519824700383308</v>
+        <v>0.01366861336960757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0773718527451276</v>
+        <v>0.08100007273514899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1433,19 +1433,19 @@
         <v>14739</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8566</v>
+        <v>8263</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25568</v>
+        <v>25211</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05065297644809959</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02943690379892041</v>
+        <v>0.02839633246653419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0878680456606645</v>
+        <v>0.0866398607380712</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>132908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123558</v>
+        <v>124888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138507</v>
+        <v>138477</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.917141220947481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8526156785081768</v>
+        <v>0.8617975886650974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9557777718531003</v>
+        <v>0.9555649887734139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1483,19 +1483,19 @@
         <v>133746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>124948</v>
+        <v>126282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139379</v>
+        <v>139586</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9156450161761661</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8554155594636952</v>
+        <v>0.8645457740700632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9542141825327103</v>
+        <v>0.9556283983905757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>262</v>
@@ -1504,19 +1504,19 @@
         <v>266655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>254881</v>
+        <v>253949</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275453</v>
+        <v>275182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.916390159927587</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8759284191308312</v>
+        <v>0.8727263932077307</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.946626161304944</v>
+        <v>0.9456945923254028</v>
       </c>
     </row>
     <row r="15">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6634</v>
+        <v>5946</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04040422140489842</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1344414715432699</v>
+        <v>0.1205094089136626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6512</v>
+        <v>7172</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05528991761541488</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1659770004971094</v>
+        <v>0.1828072636021298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1650,19 +1650,19 @@
         <v>4163</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1061</v>
+        <v>1070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9398</v>
+        <v>9427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04699782650774356</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01197732844838481</v>
+        <v>0.01207860666062794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1061052104404038</v>
+        <v>0.1064265973305723</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>3517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8025</v>
+        <v>9213</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07126881233017504</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01859213777855208</v>
+        <v>0.01870129068664656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1626334181369982</v>
+        <v>0.1867205765834308</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6503</v>
+        <v>6296</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03364328959593441</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.165751844333801</v>
+        <v>0.1604783255047342</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1721,19 +1721,19 @@
         <v>4836</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10413</v>
+        <v>10063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0546026225067904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01918748085832685</v>
+        <v>0.01912284978154585</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1175619375731004</v>
+        <v>0.1136137082028184</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>43832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38586</v>
+        <v>38027</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46701</v>
+        <v>46729</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8883269662649266</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7820068725559188</v>
+        <v>0.7706750703508488</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9464827530407475</v>
+        <v>0.9470510655385662</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -1771,19 +1771,19 @@
         <v>35746</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30556</v>
+        <v>30130</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38191</v>
+        <v>38185</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9110667927886507</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7787818296913189</v>
+        <v>0.7679374479100489</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9733983946841966</v>
+        <v>0.9732275010001683</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -1792,19 +1792,19 @@
         <v>79577</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>73166</v>
+        <v>72435</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84071</v>
+        <v>83889</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8983995509854661</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8260271314079163</v>
+        <v>0.8177731128679168</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9491417255296433</v>
+        <v>0.9470843518205589</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>25292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17472</v>
+        <v>16871</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35753</v>
+        <v>37198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05206177502231343</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03596532427487794</v>
+        <v>0.03472805545924373</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07359592321505852</v>
+        <v>0.07657028902860601</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -1917,19 +1917,19 @@
         <v>36969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25990</v>
+        <v>25841</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49672</v>
+        <v>49716</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05591927778761382</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03931239602006946</v>
+        <v>0.03908644477634377</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07513430344733622</v>
+        <v>0.07520049802521386</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>61</v>
@@ -1938,19 +1938,19 @@
         <v>62261</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48032</v>
+        <v>48403</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80101</v>
+        <v>78149</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05428533845458688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04187891381160514</v>
+        <v>0.04220250545640891</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06984011310608862</v>
+        <v>0.06813802825079021</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>45335</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34800</v>
+        <v>33682</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59352</v>
+        <v>58616</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09331960193654285</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07163292116870829</v>
+        <v>0.06933173541170515</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1221737307058626</v>
+        <v>0.1206579501811528</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -1988,19 +1988,19 @@
         <v>45495</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34287</v>
+        <v>34149</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>60817</v>
+        <v>60528</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06881584552289097</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05186207692801047</v>
+        <v>0.05165444181285781</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09199202888118591</v>
+        <v>0.09155475392364296</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>90</v>
@@ -2009,19 +2009,19 @@
         <v>90830</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73330</v>
+        <v>72979</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>108272</v>
+        <v>111545</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07919500889545678</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06393642718625843</v>
+        <v>0.06363074453955954</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09440234669133742</v>
+        <v>0.09725645862493712</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>415177</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>397898</v>
+        <v>399149</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>429494</v>
+        <v>428637</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8546186230411437</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8190505458843587</v>
+        <v>0.8216247355725649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8840890910169026</v>
+        <v>0.8823248762794744</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>569</v>
@@ -2059,19 +2059,19 @@
         <v>578648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>561269</v>
+        <v>560446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>595189</v>
+        <v>594876</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8752648766894953</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8489764785626214</v>
+        <v>0.8477329505990419</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9002853690984221</v>
+        <v>0.8998110529358305</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1000</v>
@@ -2080,19 +2080,19 @@
         <v>993825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>969934</v>
+        <v>971076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1017403</v>
+        <v>1016822</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8665196526499563</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8456891780662886</v>
+        <v>0.8466842945568736</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8870770941689347</v>
+        <v>0.8865709205440728</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>21380</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13975</v>
+        <v>13785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31260</v>
+        <v>30647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1554535699406262</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1016089158236062</v>
+        <v>0.1002305983803034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2272907702632172</v>
+        <v>0.2228345845198796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2445,19 +2445,19 @@
         <v>28240</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18991</v>
+        <v>18663</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39137</v>
+        <v>38989</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1309643662073108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08807227746305851</v>
+        <v>0.08654967125400553</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1814976295908778</v>
+        <v>0.1808123444770653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -2466,19 +2466,19 @@
         <v>49620</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36899</v>
+        <v>37720</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63048</v>
+        <v>63899</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1405011463902256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1044793753332072</v>
+        <v>0.10680591746638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1785215547434226</v>
+        <v>0.1809308573919258</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>20554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11918</v>
+        <v>12770</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29835</v>
+        <v>31253</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.149448406967465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08665336324846987</v>
+        <v>0.09285161863631963</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2169270711675136</v>
+        <v>0.2272384844667929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -2516,19 +2516,19 @@
         <v>30190</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21393</v>
+        <v>20947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43371</v>
+        <v>41389</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1400046819445465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09921197091696472</v>
+        <v>0.09714145938069867</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2011306221511394</v>
+        <v>0.1919415840754241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -2537,19 +2537,19 @@
         <v>50744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38304</v>
+        <v>38833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66178</v>
+        <v>66377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1436823323341728</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1084578206963342</v>
+        <v>0.1099569093322713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1873830534715233</v>
+        <v>0.1879489405203757</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>95599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>85553</v>
+        <v>83016</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106739</v>
+        <v>106851</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6950980230919088</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6220520374673084</v>
+        <v>0.6036042484142662</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7760941203473388</v>
+        <v>0.7769136758307755</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -2587,19 +2587,19 @@
         <v>157204</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>142065</v>
+        <v>143730</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>169519</v>
+        <v>169253</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7290309518481427</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6588242388392588</v>
+        <v>0.6665452603881618</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7861400009575924</v>
+        <v>0.7849077622203889</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>232</v>
@@ -2608,19 +2608,19 @@
         <v>252803</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>234221</v>
+        <v>234213</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>270000</v>
+        <v>269463</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7158165212756016</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6632027757672792</v>
+        <v>0.6631790247347139</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7645094792656408</v>
+        <v>0.7629902077374191</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>13581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7263</v>
+        <v>7128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22865</v>
+        <v>24099</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07874468833506482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04211428556331495</v>
+        <v>0.04132609354899079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1325711660950811</v>
+        <v>0.1397313920156066</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -2733,19 +2733,19 @@
         <v>24256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15045</v>
+        <v>15699</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35298</v>
+        <v>35457</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.098175360926736</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06089632964876811</v>
+        <v>0.06354157544845333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1428680612138337</v>
+        <v>0.143511773496728</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -2754,19 +2754,19 @@
         <v>37837</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26529</v>
+        <v>26998</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52490</v>
+        <v>51401</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09018749170948975</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06323523580115578</v>
+        <v>0.0643511254189225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1251154082323445</v>
+        <v>0.122519340549137</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>20692</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12759</v>
+        <v>13557</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32842</v>
+        <v>31906</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1199739062741981</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07397764649944046</v>
+        <v>0.07860390090822024</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1904223606734045</v>
+        <v>0.1849925483252344</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -2804,19 +2804,19 @@
         <v>25399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17478</v>
+        <v>16850</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35423</v>
+        <v>36965</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1028036561413932</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07074273525969403</v>
+        <v>0.06819833191339836</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1433720946082149</v>
+        <v>0.1496142038717482</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -2825,19 +2825,19 @@
         <v>46091</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34081</v>
+        <v>33723</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>60445</v>
+        <v>60035</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1098622750255918</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08123451740689461</v>
+        <v>0.08038050439364791</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1440754504325341</v>
+        <v>0.143097648554199</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>138197</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>126862</v>
+        <v>125481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149598</v>
+        <v>148228</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.801281405390737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7355616919745643</v>
+        <v>0.7275502694764675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8673827383690891</v>
+        <v>0.8594404824499273</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>190</v>
@@ -2875,19 +2875,19 @@
         <v>197412</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184960</v>
+        <v>182142</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209643</v>
+        <v>209111</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7990209829318707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7486232499673541</v>
+        <v>0.7372177091386357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8485270369453757</v>
+        <v>0.8463744223240658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>318</v>
@@ -2896,19 +2896,19 @@
         <v>335608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>318227</v>
+        <v>317271</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>351739</v>
+        <v>350969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7999502332649184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7585221640934351</v>
+        <v>0.7562437224433028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8383988763773396</v>
+        <v>0.8365642001354243</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>15771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8349</v>
+        <v>9334</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25821</v>
+        <v>25996</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09487386665630104</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05022164215522144</v>
+        <v>0.05614992072323264</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1553274691394998</v>
+        <v>0.1563825806515789</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -3021,19 +3021,19 @@
         <v>15189</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8489</v>
+        <v>8187</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25401</v>
+        <v>25294</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07908140792908866</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04419817526350383</v>
+        <v>0.04262373164858065</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1322459351157577</v>
+        <v>0.131692317822254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -3042,19 +3042,19 @@
         <v>30961</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21268</v>
+        <v>21141</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43262</v>
+        <v>43646</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08640827259297001</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05935784492842213</v>
+        <v>0.05900312298435016</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1207398083158858</v>
+        <v>0.1218114185419523</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>15961</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8443</v>
+        <v>9131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24977</v>
+        <v>25612</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09601563548956712</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05078788083831309</v>
+        <v>0.0549266977381008</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1502509796014906</v>
+        <v>0.1540728474874904</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3092,19 +3092,19 @@
         <v>13312</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7261</v>
+        <v>7133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21666</v>
+        <v>21945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0693069227298346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0378028804017165</v>
+        <v>0.03713501494041415</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.112800983407826</v>
+        <v>0.1142527252642035</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -3113,19 +3113,19 @@
         <v>29273</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19423</v>
+        <v>19664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42229</v>
+        <v>41416</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08169835126653492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05420836865045093</v>
+        <v>0.0548816223060418</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1178587427527619</v>
+        <v>0.1155884437850818</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>134502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123049</v>
+        <v>123137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144987</v>
+        <v>143343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8091104978541318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7402094741521157</v>
+        <v>0.7407406063726258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8721797897142801</v>
+        <v>0.8622894707609373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -3163,19 +3163,19 @@
         <v>163570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151880</v>
+        <v>151960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173776</v>
+        <v>172806</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8516116693410767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7907485709365434</v>
+        <v>0.791167372115015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9047498644613892</v>
+        <v>0.8996980434090877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>277</v>
@@ -3184,19 +3184,19 @@
         <v>298072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>282499</v>
+        <v>281808</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>312473</v>
+        <v>311200</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8318933761404951</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7884298027324224</v>
+        <v>0.7865014678456577</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8720831241940848</v>
+        <v>0.8685311469598244</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>4216</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10514</v>
+        <v>10097</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05398290112713061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01419426029341961</v>
+        <v>0.01396724002786383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1346217807321297</v>
+        <v>0.1292896422664268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3309,19 +3309,19 @@
         <v>7674</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3350</v>
+        <v>3263</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14511</v>
+        <v>14541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09022797251330116</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03939226076902681</v>
+        <v>0.03836997090830328</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1706170020274805</v>
+        <v>0.1709659536141641</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3330,19 +3330,19 @@
         <v>11890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6124</v>
+        <v>6357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20145</v>
+        <v>20102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0728778230052185</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03753630560920548</v>
+        <v>0.03896813908062002</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1234769622507873</v>
+        <v>0.1232154973656302</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>8533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3474</v>
+        <v>4175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16353</v>
+        <v>16451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1092597134698671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04448631251167678</v>
+        <v>0.05345798066324701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2093949600128302</v>
+        <v>0.210647710498453</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3380,19 +3380,19 @@
         <v>7292</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3124</v>
+        <v>2977</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13967</v>
+        <v>13810</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0857399556621589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03673504369521208</v>
+        <v>0.03500314144704181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1642256196219475</v>
+        <v>0.1623715555341354</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -3401,19 +3401,19 @@
         <v>15825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9395</v>
+        <v>9324</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25947</v>
+        <v>25554</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09699862611723579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05758896332274435</v>
+        <v>0.05714826651173913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1590442573650749</v>
+        <v>0.156630778671588</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>65348</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55849</v>
+        <v>57307</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>71139</v>
+        <v>70985</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8367573854030023</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7151180049995174</v>
+        <v>0.7337872544284321</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9109101444355147</v>
+        <v>0.9089305780327922</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -3451,19 +3451,19 @@
         <v>70084</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60958</v>
+        <v>62394</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76315</v>
+        <v>76848</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.82403207182454</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7167275958126387</v>
+        <v>0.733619878073364</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8972925051124759</v>
+        <v>0.9035603370267915</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>118</v>
@@ -3472,19 +3472,19 @@
         <v>135431</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>124160</v>
+        <v>124001</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>143879</v>
+        <v>144659</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8301235508775457</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.761034656157103</v>
+        <v>0.7600591429631676</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8819018466960026</v>
+        <v>0.8866838085276425</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>54948</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41097</v>
+        <v>42297</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71225</v>
+        <v>72315</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09912486163308955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07413671476735929</v>
+        <v>0.07630154253985648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1284877442368341</v>
+        <v>0.1304538777895078</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -3597,19 +3597,19 @@
         <v>75359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59609</v>
+        <v>58890</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>93979</v>
+        <v>93431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1018615221603194</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08057246734683804</v>
+        <v>0.07960076321331612</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1270295870933178</v>
+        <v>0.1262879930052331</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>117</v>
@@ -3618,19 +3618,19 @@
         <v>130308</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>109949</v>
+        <v>107323</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>156285</v>
+        <v>153272</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1006893102216249</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08495816743199608</v>
+        <v>0.08292879323896134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1207622798717061</v>
+        <v>0.1184337117440438</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>65740</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49815</v>
+        <v>49818</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>83523</v>
+        <v>83848</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1185925631197829</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08986471459835788</v>
+        <v>0.08987066870270129</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1506723007594223</v>
+        <v>0.1512596553752689</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -3668,19 +3668,19 @@
         <v>76193</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>59578</v>
+        <v>60604</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>94172</v>
+        <v>93760</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1029885452378032</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08053017391853913</v>
+        <v>0.08191668842813382</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1272898484471037</v>
+        <v>0.1267337502309248</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>128</v>
@@ -3689,19 +3689,19 @@
         <v>141933</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118236</v>
+        <v>119953</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166316</v>
+        <v>166920</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1096723176205524</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09136139203911835</v>
+        <v>0.0926886427215084</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1285132804611669</v>
+        <v>0.1289800041098733</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>433646</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>414466</v>
+        <v>412317</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>454490</v>
+        <v>452996</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7822825752471275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.747683289247265</v>
+        <v>0.7438056244235166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8198854028792951</v>
+        <v>0.8171903011061623</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>552</v>
@@ -3739,19 +3739,19 @@
         <v>588269</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>563120</v>
+        <v>565152</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>609989</v>
+        <v>609573</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7951499326018774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7611570559905102</v>
+        <v>0.7639040332719617</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8245083937223164</v>
+        <v>0.8239463787450699</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>945</v>
@@ -3760,19 +3760,19 @@
         <v>1021914</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>990491</v>
+        <v>989618</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1052195</v>
+        <v>1050053</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7896383721578226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7653572532702814</v>
+        <v>0.7646829868376716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8130361135573436</v>
+        <v>0.8113814614833081</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>12020</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6842</v>
+        <v>6779</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19247</v>
+        <v>19283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07221310754580482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04110733388692434</v>
+        <v>0.04072452796613244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1156296935583642</v>
+        <v>0.1158450374065751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -4125,19 +4125,19 @@
         <v>21548</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13290</v>
+        <v>13836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34154</v>
+        <v>33669</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08275476894226366</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05104241807119026</v>
+        <v>0.05313712752073283</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1311720104337291</v>
+        <v>0.1293096020450472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -4146,19 +4146,19 @@
         <v>33568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22879</v>
+        <v>23453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45783</v>
+        <v>46663</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07864377191921229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05360102518127158</v>
+        <v>0.05494733606292281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1072627038350199</v>
+        <v>0.1093239079309159</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>19860</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12982</v>
+        <v>12672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28272</v>
+        <v>29675</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1193128377324981</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07798945621009068</v>
+        <v>0.07613016345843357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.169846277692323</v>
+        <v>0.1782782413980862</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4196,19 +4196,19 @@
         <v>31581</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20894</v>
+        <v>21919</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43982</v>
+        <v>44894</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1212878670643504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08024576312244946</v>
+        <v>0.08418219089481978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1689171474860401</v>
+        <v>0.172417317372291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -4217,19 +4217,19 @@
         <v>51441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39121</v>
+        <v>38477</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66350</v>
+        <v>66348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1205176526362517</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09165491544854848</v>
+        <v>0.09014493278744244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1554466715505572</v>
+        <v>0.1554418033363291</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>134574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>124290</v>
+        <v>123248</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142269</v>
+        <v>142913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8084740547216971</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.746692175135695</v>
+        <v>0.7404317258934678</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8547019371532554</v>
+        <v>0.8585714395665215</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>179</v>
@@ -4267,19 +4267,19 @@
         <v>207250</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>192213</v>
+        <v>191671</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>219780</v>
+        <v>219541</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7959573639933859</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7382074265958825</v>
+        <v>0.7361251701505171</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8440799788588703</v>
+        <v>0.8431621880313239</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>319</v>
@@ -4288,19 +4288,19 @@
         <v>341824</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>325056</v>
+        <v>323785</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>357167</v>
+        <v>357156</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.800838575444536</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7615540187545983</v>
+        <v>0.7585777395308383</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8367850020427789</v>
+        <v>0.836760667468495</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>6845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3145</v>
+        <v>3265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12806</v>
+        <v>12790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04032380681423282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0185279412983501</v>
+        <v>0.01923145801320843</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07543610038355954</v>
+        <v>0.07534118737526214</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -4413,19 +4413,19 @@
         <v>7812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3260</v>
+        <v>2336</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19734</v>
+        <v>17844</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03537879376128467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0147628534449943</v>
+        <v>0.01057839687069612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08937217401238402</v>
+        <v>0.08081488228154936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -4434,19 +4434,19 @@
         <v>14657</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8291</v>
+        <v>8206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25607</v>
+        <v>25691</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03752817956525081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02122809145279191</v>
+        <v>0.02101017649407329</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06556301833325363</v>
+        <v>0.06577765772787683</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>12186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7057</v>
+        <v>6650</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19430</v>
+        <v>19929</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07178164032554349</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0415711213332484</v>
+        <v>0.03917177462417972</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1144555057840903</v>
+        <v>0.1173903085343717</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -4484,19 +4484,19 @@
         <v>19580</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11941</v>
+        <v>11683</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30572</v>
+        <v>29811</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0886766222367064</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05408032116539625</v>
+        <v>0.05291144592632309</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1384556253458519</v>
+        <v>0.1350098037327216</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>30</v>
@@ -4505,19 +4505,19 @@
         <v>31766</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22388</v>
+        <v>22498</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44131</v>
+        <v>45390</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08133309576078163</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05732116100353151</v>
+        <v>0.05760253830241849</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1129924879852449</v>
+        <v>0.1162147497318494</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>150732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142042</v>
+        <v>141816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157335</v>
+        <v>157652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8878945528602237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8367101113334796</v>
+        <v>0.8353782048875671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9267937351264126</v>
+        <v>0.92866023698806</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -4555,19 +4555,19 @@
         <v>193413</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180668</v>
+        <v>180482</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203400</v>
+        <v>203448</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8759445840020089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8182232633990547</v>
+        <v>0.8173815803064335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9211740358700438</v>
+        <v>0.9213911347970611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -4576,19 +4576,19 @@
         <v>344145</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>329783</v>
+        <v>328035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>356087</v>
+        <v>356264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8811387246739676</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8443679847965566</v>
+        <v>0.8398912729936249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9117145372761528</v>
+        <v>0.9121683025267959</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>7854</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3575</v>
+        <v>3879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15257</v>
+        <v>14431</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05041801575701872</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02295231018160307</v>
+        <v>0.02490109134236643</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09794478968358379</v>
+        <v>0.09264518598070007</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -4701,19 +4701,19 @@
         <v>16280</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8710</v>
+        <v>9077</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28691</v>
+        <v>27641</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08842809673061186</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0473071193363009</v>
+        <v>0.04930539799500157</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1558414666196544</v>
+        <v>0.1501382707319718</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -4722,19 +4722,19 @@
         <v>24134</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15360</v>
+        <v>15742</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37113</v>
+        <v>37585</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07100745647049986</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04519422174293503</v>
+        <v>0.04631759148442188</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1091957388970929</v>
+        <v>0.1105842583654918</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>10561</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5976</v>
+        <v>5849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17972</v>
+        <v>18030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06779777750375511</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03836435994892629</v>
+        <v>0.03754972267282271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1153768401443972</v>
+        <v>0.1157460813775569</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -4772,19 +4772,19 @@
         <v>16432</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8533</v>
+        <v>9348</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27836</v>
+        <v>28648</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08925419948015761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0463463829094263</v>
+        <v>0.05077420923522573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1511944831851716</v>
+        <v>0.1556080743188568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4793,19 +4793,19 @@
         <v>26993</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17520</v>
+        <v>17523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40402</v>
+        <v>41915</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07942037121813023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05154914486143982</v>
+        <v>0.05155821376869408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1188719269310456</v>
+        <v>0.1233250125692109</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>137356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127988</v>
+        <v>128111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144475</v>
+        <v>143820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8817842067392262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8216440483946967</v>
+        <v>0.8224304698181597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9274828211758039</v>
+        <v>0.9232790091573605</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -4843,19 +4843,19 @@
         <v>151394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136614</v>
+        <v>137193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>162408</v>
+        <v>161429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8223177037892305</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7420421447521861</v>
+        <v>0.7451846153634615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8821412757298778</v>
+        <v>0.8768284470926733</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>275</v>
@@ -4864,19 +4864,19 @@
         <v>288750</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>273015</v>
+        <v>271470</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302291</v>
+        <v>301398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8495721723113699</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8032764086233454</v>
+        <v>0.7987297750635519</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8894139223238654</v>
+        <v>0.8867868202846447</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>7830</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4213</v>
+        <v>3593</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14993</v>
+        <v>13109</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08903435490542239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04790776570921382</v>
+        <v>0.04085196594989374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1704768282215506</v>
+        <v>0.1490609262494778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4989,19 +4989,19 @@
         <v>3852</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1212</v>
+        <v>1193</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10118</v>
+        <v>10290</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0361555924863623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01137441744385495</v>
+        <v>0.01120241647985486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09496972403193513</v>
+        <v>0.09658531423466278</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -5010,19 +5010,19 @@
         <v>11682</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6550</v>
+        <v>6235</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20708</v>
+        <v>19246</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06006758041998424</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03368114172361235</v>
+        <v>0.03206167754818209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1064767135733992</v>
+        <v>0.09895949110731528</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>4305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1679</v>
+        <v>1586</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9533</v>
+        <v>9150</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04895362485684005</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01908608522232334</v>
+        <v>0.01803442839866459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1083916621951676</v>
+        <v>0.1040452100165872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8725</v>
+        <v>7640</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02267600455402293</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08189361927060397</v>
+        <v>0.07171469328244948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -5081,19 +5081,19 @@
         <v>6721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2708</v>
+        <v>2747</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13293</v>
+        <v>13334</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03455884959161356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01392216520997193</v>
+        <v>0.0141252754801055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06835142687040624</v>
+        <v>0.06856219574783474</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>75810</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67579</v>
+        <v>69835</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80626</v>
+        <v>81752</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8620120202377376</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7684206239782359</v>
+        <v>0.7940719965454791</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.916774822114064</v>
+        <v>0.9295822843194634</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -5131,19 +5131,19 @@
         <v>100268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>93043</v>
+        <v>93623</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>104066</v>
+        <v>104152</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9411684029596148</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8733466524194813</v>
+        <v>0.8787955527168582</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9768120366067838</v>
+        <v>0.9776253572871109</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>161</v>
@@ -5152,19 +5152,19 @@
         <v>176078</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>166097</v>
+        <v>166928</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>182988</v>
+        <v>183246</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9053735699884022</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8540508873286904</v>
+        <v>0.8583274779593968</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9409058133321655</v>
+        <v>0.9422295633624235</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>34550</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25182</v>
+        <v>25594</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47349</v>
+        <v>47446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05957488947892914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04342166373824904</v>
+        <v>0.04413184205836961</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08164586235637084</v>
+        <v>0.081812943227174</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -5277,19 +5277,19 @@
         <v>49491</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34550</v>
+        <v>35369</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66713</v>
+        <v>68045</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06412249660379449</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04476447763727438</v>
+        <v>0.04582462506269864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08643577025824389</v>
+        <v>0.08816159533044828</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -5298,19 +5298,19 @@
         <v>84041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65002</v>
+        <v>67192</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102320</v>
+        <v>106032</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06217147344523857</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04808682307774383</v>
+        <v>0.04970715400303316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07569369982066644</v>
+        <v>0.07844016624401264</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>46912</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35113</v>
+        <v>35935</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60502</v>
+        <v>60225</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08089230380350163</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06054708022583741</v>
+        <v>0.06196379648994525</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1043248224923141</v>
+        <v>0.1038473941980597</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>54</v>
@@ -5348,19 +5348,19 @@
         <v>70009</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>51903</v>
+        <v>53186</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>89751</v>
+        <v>88767</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0907057437046743</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06724673514417716</v>
+        <v>0.06890997677045281</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1162840844169424</v>
+        <v>0.1150097643567159</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -5369,19 +5369,19 @@
         <v>116921</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>96687</v>
+        <v>96703</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>139012</v>
+        <v>143119</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08649556283667519</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07152688145568235</v>
+        <v>0.07153906235521179</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1028379314678681</v>
+        <v>0.1058761578186639</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>498472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>480834</v>
+        <v>482280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>513198</v>
+        <v>512134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8595328067175693</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8291186307903959</v>
+        <v>0.8316118528112967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8849247367171217</v>
+        <v>0.8830894600891858</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>559</v>
@@ -5419,19 +5419,19 @@
         <v>652324</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>628323</v>
+        <v>627911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>674487</v>
+        <v>672164</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8451717596915312</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8140750563491936</v>
+        <v>0.8135418855485916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8738867514427806</v>
+        <v>0.8708777760490046</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1083</v>
@@ -5440,19 +5440,19 @@
         <v>1150796</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1124017</v>
+        <v>1120834</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1178131</v>
+        <v>1175633</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8513329637180862</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8315220992291048</v>
+        <v>0.8291675943543161</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8715543170931493</v>
+        <v>0.8697064898088431</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>7959</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4454</v>
+        <v>4478</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13003</v>
+        <v>13051</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1197393093725315</v>
+        <v>0.1197393093725314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06700600162885798</v>
+        <v>0.06737131728328163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1956373287731925</v>
+        <v>0.1963506875892913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -5805,19 +5805,19 @@
         <v>21903</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16066</v>
+        <v>16418</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29611</v>
+        <v>29620</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.153156529433507</v>
+        <v>0.1531565294335071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1123424911743936</v>
+        <v>0.1148023953529172</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2070510181131327</v>
+        <v>0.2071138746288904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -5826,19 +5826,19 @@
         <v>29862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22663</v>
+        <v>23016</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37946</v>
+        <v>39349</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1425534331896183</v>
+        <v>0.1425534331896184</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1081886230645327</v>
+        <v>0.1098715120174347</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1811434983770872</v>
+        <v>0.1878411655468619</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>11161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6753</v>
+        <v>6419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16868</v>
+        <v>16865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.167916587821286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1016023949397938</v>
+        <v>0.09657031136022444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2537760592901619</v>
+        <v>0.2537361164522624</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -5876,19 +5876,19 @@
         <v>31205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24769</v>
+        <v>24893</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38517</v>
+        <v>39215</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2181942238753494</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1731924825696448</v>
+        <v>0.1740580721370412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.269324658108255</v>
+        <v>0.2742077302412256</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -5897,19 +5897,19 @@
         <v>42365</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33603</v>
+        <v>34253</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51341</v>
+        <v>52377</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2022414123301726</v>
+        <v>0.2022414123301727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1604140407166162</v>
+        <v>0.1635138007883613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2450867038399579</v>
+        <v>0.2500324146903118</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>47347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41084</v>
+        <v>41140</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53242</v>
+        <v>52905</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7123441028061828</v>
+        <v>0.7123441028061827</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6181184480184982</v>
+        <v>0.6189500774802382</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.801021709081191</v>
+        <v>0.795955929502801</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -5947,19 +5947,19 @@
         <v>89905</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>80315</v>
+        <v>80410</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97716</v>
+        <v>97460</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6286492466911434</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5615937703341567</v>
+        <v>0.5622535860445349</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6832663278370341</v>
+        <v>0.6814733482783424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>233</v>
@@ -5968,19 +5968,19 @@
         <v>137252</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>127591</v>
+        <v>125879</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>149048</v>
+        <v>147645</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6552051544802089</v>
+        <v>0.655205154480209</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6090894437665441</v>
+        <v>0.6009159967446519</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7115170620533212</v>
+        <v>0.7048224279015157</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>19836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13727</v>
+        <v>14130</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26985</v>
+        <v>27581</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0989943041747556</v>
+        <v>0.09899430417475562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06850598353566778</v>
+        <v>0.07051770988113502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1346730020783338</v>
+        <v>0.1376449740329631</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -6093,19 +6093,19 @@
         <v>25652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18864</v>
+        <v>19081</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33774</v>
+        <v>34147</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08484652718542318</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06239429466709286</v>
+        <v>0.06311079217821704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1117098515047523</v>
+        <v>0.1129422008183656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -6114,19 +6114,19 @@
         <v>45488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36472</v>
+        <v>36749</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55761</v>
+        <v>56133</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09048566086770883</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07255096518423276</v>
+        <v>0.07310138990283806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1109196514903376</v>
+        <v>0.1116601739765444</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>21337</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14603</v>
+        <v>15340</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29394</v>
+        <v>29384</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1064840987778187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07287926128295877</v>
+        <v>0.07655873775242977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1466973883281167</v>
+        <v>0.1466434248155869</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>86</v>
@@ -6164,19 +6164,19 @@
         <v>42844</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34253</v>
+        <v>34264</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51957</v>
+        <v>52526</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1417086428831091</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1132939348622906</v>
+        <v>0.1133307664837297</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.171852722952164</v>
+        <v>0.1737327237094558</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>120</v>
@@ -6185,19 +6185,19 @@
         <v>64181</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>54287</v>
+        <v>52757</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75949</v>
+        <v>76241</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1276685634234828</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1079877314271146</v>
+        <v>0.1049439872965008</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1510777801274679</v>
+        <v>0.1516602088200021</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>159202</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149466</v>
+        <v>148703</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167771</v>
+        <v>167586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7945215970474256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7459329010044424</v>
+        <v>0.742125505092092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8372834215792272</v>
+        <v>0.8363607926792145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>432</v>
@@ -6235,19 +6235,19 @@
         <v>233841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>222604</v>
+        <v>221644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244050</v>
+        <v>243634</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7734448299314678</v>
+        <v>0.7734448299314679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.736276138126414</v>
+        <v>0.7331015216444415</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8072113081379098</v>
+        <v>0.8058359372728953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>658</v>
@@ -6256,19 +6256,19 @@
         <v>393043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378157</v>
+        <v>376319</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>405265</v>
+        <v>404965</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7818457757088083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7522346952579048</v>
+        <v>0.7485774854807478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8061565980221569</v>
+        <v>0.8055607409250439</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>14988</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9665</v>
+        <v>10178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21735</v>
+        <v>21914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06536142374488292</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04214616990804047</v>
+        <v>0.04438242900109711</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09478065484578393</v>
+        <v>0.09556487908895227</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -6381,19 +6381,19 @@
         <v>18564</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12895</v>
+        <v>13002</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25635</v>
+        <v>26764</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07849195220391575</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05452171385201378</v>
+        <v>0.05497505301926473</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1083905167933869</v>
+        <v>0.1131620938413102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -6402,19 +6402,19 @@
         <v>33552</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26099</v>
+        <v>26085</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43867</v>
+        <v>43030</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0720280846058636</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0560271697625359</v>
+        <v>0.05599770381326954</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09417166814912774</v>
+        <v>0.09237348703105845</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>11249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6778</v>
+        <v>7119</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16720</v>
+        <v>16646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04905631997301485</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02955799921220197</v>
+        <v>0.03104363991273826</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07291162626121715</v>
+        <v>0.07258832458789823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -6452,19 +6452,19 @@
         <v>22527</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16194</v>
+        <v>17069</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29030</v>
+        <v>30141</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09524703801208682</v>
+        <v>0.09524703801208684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06846971695751357</v>
+        <v>0.07216935703604618</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1227419029620146</v>
+        <v>0.1274427858478403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -6473,19 +6473,19 @@
         <v>33776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26132</v>
+        <v>26089</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42395</v>
+        <v>42886</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0725083731826355</v>
+        <v>0.07250837318263549</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05609761282877544</v>
+        <v>0.05600712335836101</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09101160487696155</v>
+        <v>0.09206506972132351</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>203076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>194299</v>
+        <v>195215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210168</v>
+        <v>210194</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8855822562821021</v>
+        <v>0.8855822562821024</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8473032995321247</v>
+        <v>0.8512993978685351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9165060315155055</v>
+        <v>0.916620446063647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -6523,19 +6523,19 @@
         <v>195418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186501</v>
+        <v>186155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>203996</v>
+        <v>203314</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8262610097839975</v>
+        <v>0.8262610097839974</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7885567692271507</v>
+        <v>0.7870968685358457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8625294289222378</v>
+        <v>0.8596453352360275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>655</v>
@@ -6544,19 +6544,19 @@
         <v>398495</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>386519</v>
+        <v>386110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409371</v>
+        <v>408733</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8554635422115009</v>
+        <v>0.8554635422115008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8297556455396743</v>
+        <v>0.8288769488469047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.878811852369776</v>
+        <v>0.8774429432096447</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>8220</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4694</v>
+        <v>4464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14614</v>
+        <v>13546</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03873850286676707</v>
+        <v>0.03873850286676706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02211988726223328</v>
+        <v>0.02103596515500863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06887340850522701</v>
+        <v>0.06383604203702303</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -6669,19 +6669,19 @@
         <v>11728</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7646</v>
+        <v>7423</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18002</v>
+        <v>17959</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05628410329807309</v>
+        <v>0.05628410329807308</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03669489150536486</v>
+        <v>0.03562250050168349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0863941762379784</v>
+        <v>0.08618697928391185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -6690,19 +6690,19 @@
         <v>19948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14113</v>
+        <v>14403</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27504</v>
+        <v>28507</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04743165605560752</v>
+        <v>0.04743165605560753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03355761213580025</v>
+        <v>0.03424723280473663</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06539701502962564</v>
+        <v>0.06778187457934666</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>22753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15562</v>
+        <v>15849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30570</v>
+        <v>30589</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1072293231664817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07334058547578191</v>
+        <v>0.07469373387389236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1440660328010159</v>
+        <v>0.1441564358107243</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -6740,19 +6740,19 @@
         <v>16588</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11526</v>
+        <v>10869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23570</v>
+        <v>23078</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07960651222048583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05531581325817472</v>
+        <v>0.05216071625326688</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1131117145660174</v>
+        <v>0.1107518330930092</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>65</v>
@@ -6761,19 +6761,19 @@
         <v>39341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30598</v>
+        <v>31106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49785</v>
+        <v>49538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09354330951308364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07275417531148293</v>
+        <v>0.0739619371418614</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1183763891776126</v>
+        <v>0.1177890389889383</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>181220</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>172363</v>
+        <v>172547</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>188846</v>
+        <v>189296</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8540321739667512</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.812294690585172</v>
+        <v>0.8131607625222971</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8899744493165976</v>
+        <v>0.892092454004851</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>343</v>
@@ -6811,19 +6811,19 @@
         <v>180059</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>171766</v>
+        <v>171599</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>186231</v>
+        <v>186779</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.864109384481441</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8243135576766336</v>
+        <v>0.8235100410124373</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8937281513050896</v>
+        <v>0.8963612034370829</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>598</v>
@@ -6832,19 +6832,19 @@
         <v>361278</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>349377</v>
+        <v>348439</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>372233</v>
+        <v>371060</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8590250344313087</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.830729600801274</v>
+        <v>0.8284977394269355</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8850732887440828</v>
+        <v>0.8822847455346948</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>51003</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39844</v>
+        <v>41802</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63084</v>
+        <v>63704</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07200264561950515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05624944173632354</v>
+        <v>0.05901375109367252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08905783740154195</v>
+        <v>0.08993364792943448</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -6957,19 +6957,19 @@
         <v>77848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65595</v>
+        <v>66013</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92630</v>
+        <v>91892</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08744651657937345</v>
+        <v>0.08744651657937343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07368302548764985</v>
+        <v>0.07415208879361113</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1040519146750252</v>
+        <v>0.1032219434578102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>231</v>
@@ -6978,19 +6978,19 @@
         <v>128851</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>114083</v>
+        <v>113311</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146764</v>
+        <v>144984</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08060317108133899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0713650488034962</v>
+        <v>0.0708821084255199</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09180863512056495</v>
+        <v>0.09069532030508556</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>66500</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55698</v>
+        <v>54523</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>80877</v>
+        <v>80639</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09388058288910198</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07863118801816572</v>
+        <v>0.0769712774145541</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1141763711540034</v>
+        <v>0.1138411432552618</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>220</v>
@@ -7028,19 +7028,19 @@
         <v>113163</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>99088</v>
+        <v>99172</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>130037</v>
+        <v>128449</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1271161885402751</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1113060026339033</v>
+        <v>0.1114003933989652</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.146070809849677</v>
+        <v>0.1442873488320958</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>321</v>
@@ -7049,19 +7049,19 @@
         <v>179663</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>160227</v>
+        <v>161108</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>198400</v>
+        <v>200164</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1123891338466412</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1002308938567193</v>
+        <v>0.1007819409430642</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1241102267418284</v>
+        <v>0.1252134517405771</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>590846</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>572554</v>
+        <v>572173</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>606008</v>
+        <v>606280</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8341167714913928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8082933682945472</v>
+        <v>0.807756399717532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8555213307860668</v>
+        <v>0.8559053844222239</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1314</v>
@@ -7099,19 +7099,19 @@
         <v>699222</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>680782</v>
+        <v>680368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>716754</v>
+        <v>716988</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7854372948803515</v>
+        <v>0.7854372948803514</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7647236114446814</v>
+        <v>0.7642578607680376</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8051308359524402</v>
+        <v>0.805393561047254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2144</v>
@@ -7120,19 +7120,19 @@
         <v>1290067</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1266805</v>
+        <v>1263477</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1313240</v>
+        <v>1314208</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8070076950720199</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7924558232001625</v>
+        <v>0.7903743833407929</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8215036998385449</v>
+        <v>0.822109260255636</v>
       </c>
     </row>
     <row r="23">
